--- a/01_ 설정/몬스터/[설정]_논산_마기에잠식된골렘컨셉_v1.00.xlsx
+++ b/01_ 설정/몬스터/[설정]_논산_마기에잠식된골렘컨셉_v1.00.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\컨펌 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Program\Documents\GitHub\Yaho\01_ 설정\몬스터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623476FF-66B5-4500-84A3-F3FEE4B4FDA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FA5769-4F49-4E6E-A53D-FC6597A306AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2F3D59DB-E2B7-4A2E-9E4B-A7D439020835}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>참고 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,60 +106,6 @@
   </si>
   <si>
     <t>논산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">선한 마음을 가진 자연의 골렘이었으나 마기에 잠식되버려 타락해버린 골렘. 배에 무저갱처럼 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>검은색의 구멍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">이 뚫려있다. 현재는 모든 이지를 잃고 자연의 보호조차 받지 못한 채 논산 지역에 버려지 있다. 들어오는 사람을 무차별적으로 공격한다.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(인게임 구현에 텍스트를 넣을 수 있다면)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"………"</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -904,23 +850,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>37276</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>19653</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>31299</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>43781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
+        <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A8F12B-F454-4052-AC30-5EBE1A2545AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CC61C2-54E7-4F8F-8C8A-7C313EB2DF34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,21 +875,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6648450" y="1885950"/>
-          <a:ext cx="4572603" cy="1952625"/>
+          <a:off x="10794923" y="806823"/>
+          <a:ext cx="8734611" cy="4839899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30296,8 +30236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68C453B-BEE0-4E2B-A5A3-7E1F6AF40844}">
   <dimension ref="B2:BR44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:AV44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BQ32" sqref="BQ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30639,7 +30579,7 @@
       <c r="S9" s="40"/>
       <c r="T9" s="41"/>
       <c r="U9" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V9" s="45"/>
       <c r="W9" s="45"/>
@@ -30746,7 +30686,7 @@
       <c r="E12" s="40"/>
       <c r="F12" s="41"/>
       <c r="G12" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
@@ -31011,7 +30951,7 @@
       <c r="E18" s="40"/>
       <c r="F18" s="41"/>
       <c r="G18" s="58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
@@ -31256,7 +31196,7 @@
       <c r="E24" s="53"/>
       <c r="F24" s="54"/>
       <c r="G24" s="57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="58"/>
       <c r="I24" s="58"/>
@@ -31397,9 +31337,7 @@
       <c r="AT26" s="58"/>
       <c r="AU26" s="58"/>
       <c r="AV26" s="58"/>
-      <c r="BR26" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="BR26" s="39"/>
     </row>
     <row r="27" spans="2:70" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
@@ -31754,7 +31692,7 @@
       <c r="E35" s="40"/>
       <c r="F35" s="41"/>
       <c r="G35" s="57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" s="45"/>
       <c r="I35" s="45"/>
